--- a/Streamlit/Data/Afbrudte uddannelse .xlsx
+++ b/Streamlit/Data/Afbrudte uddannelse .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7acf7bde8d491dbf/Dokumenter/BIexam/Exam_BI/Streamlit/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C2B679-91F4-4A0F-84AE-A09F6AAE797D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{D2C2B679-91F4-4A0F-84AE-A09F6AAE797D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{655ED3B2-89AF-421B-9022-6447BC8CD34F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Export" sheetId="1" r:id="rId1"/>
@@ -420,14 +420,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,7 +446,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -764,14 +764,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N110" sqref="A1:N110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="26.125" customWidth="1"/>
+    <col min="3" max="3" width="29.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7"/>
@@ -848,14 +853,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:13" ht="15">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="1">
         <v>4275</v>
       </c>
@@ -887,8 +892,8 @@
         <v>3552</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:13" ht="15">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -928,8 +933,8 @@
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:13" ht="15">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -969,8 +974,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:13" ht="15">
+      <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1010,8 +1015,8 @@
         <v>865</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:13" ht="15">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1051,8 +1056,8 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:13" ht="15">
+      <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1092,8 +1097,8 @@
         <v>266</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:13" ht="15">
+      <c r="A9" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1133,14 +1138,14 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:13" ht="15">
+      <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="1">
         <v>8163</v>
       </c>
@@ -1172,11 +1177,11 @@
         <v>9488</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:13" ht="15">
+      <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1214,10 +1219,10 @@
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1255,10 +1260,10 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1295,11 +1300,11 @@
         <v>547</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:13" ht="15">
+      <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1337,10 +1342,10 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -1378,10 +1383,10 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1419,10 +1424,10 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1460,10 +1465,10 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1501,10 +1506,10 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -1541,11 +1546,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:13" ht="15">
+      <c r="A20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -1583,10 +1588,10 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -1624,10 +1629,10 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -1662,10 +1667,10 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -1703,10 +1708,10 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -1743,11 +1748,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:13" ht="15">
+      <c r="A25" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -1785,10 +1790,10 @@
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -1826,10 +1831,10 @@
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -1857,11 +1862,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:13" ht="15">
+      <c r="A28" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -1899,10 +1904,10 @@
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -1940,10 +1945,10 @@
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -1981,10 +1986,10 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -2022,10 +2027,10 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -2063,10 +2068,10 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -2104,10 +2109,10 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -2145,10 +2150,10 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -2186,10 +2191,10 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -2227,10 +2232,10 @@
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -2268,10 +2273,10 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -2308,11 +2313,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="6" t="s">
+    <row r="39" spans="1:13" ht="15">
+      <c r="A39" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -2350,10 +2355,10 @@
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -2391,10 +2396,10 @@
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -2432,10 +2437,10 @@
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -2473,10 +2478,10 @@
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -2514,10 +2519,10 @@
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -2555,10 +2560,10 @@
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -2596,10 +2601,10 @@
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -2636,11 +2641,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="6" t="s">
+    <row r="47" spans="1:13" ht="15">
+      <c r="A47" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -2678,10 +2683,10 @@
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -2719,10 +2724,10 @@
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -2759,14 +2764,14 @@
         <v>202</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="6" t="s">
+    <row r="50" spans="1:13" ht="15">
+      <c r="A50" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="9"/>
+      <c r="C50" s="8"/>
       <c r="D50" s="1">
         <v>11465</v>
       </c>
@@ -2798,11 +2803,11 @@
         <v>6939</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="6" t="s">
+    <row r="51" spans="1:13" ht="15">
+      <c r="A51" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -2840,10 +2845,10 @@
       </c>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C52" s="3" t="s">
@@ -2881,10 +2886,10 @@
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -2922,10 +2927,10 @@
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -2963,10 +2968,10 @@
       </c>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -3004,10 +3009,10 @@
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -3044,11 +3049,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="6" t="s">
+    <row r="57" spans="1:13" ht="15">
+      <c r="A57" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -3086,10 +3091,10 @@
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -3127,10 +3132,10 @@
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -3168,10 +3173,10 @@
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C60" s="3" t="s">
@@ -3209,10 +3214,10 @@
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C61" s="3" t="s">
@@ -3250,10 +3255,10 @@
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -3291,10 +3296,10 @@
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C63" s="3" t="s">
@@ -3332,10 +3337,10 @@
       </c>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C64" s="3" t="s">
@@ -3373,10 +3378,10 @@
       </c>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -3413,11 +3418,11 @@
         <v>645</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="6" t="s">
+    <row r="66" spans="1:13" ht="15">
+      <c r="A66" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="9" t="s">
         <v>69</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -3455,10 +3460,10 @@
       </c>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="9" t="s">
         <v>69</v>
       </c>
       <c r="C67" s="3" t="s">
@@ -3496,10 +3501,10 @@
       </c>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="9" t="s">
         <v>69</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -3537,10 +3542,10 @@
       </c>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="9" t="s">
         <v>69</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -3577,11 +3582,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
-      <c r="A70" s="6" t="s">
+    <row r="70" spans="1:13" ht="15">
+      <c r="A70" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C70" s="4" t="s">
@@ -3619,10 +3624,10 @@
       </c>
     </row>
     <row r="71" spans="1:13">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C71" s="3" t="s">
@@ -3660,10 +3665,10 @@
       </c>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C72" s="3" t="s">
@@ -3701,10 +3706,10 @@
       </c>
     </row>
     <row r="73" spans="1:13">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C73" s="3" t="s">
@@ -3741,11 +3746,11 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="6" t="s">
+    <row r="74" spans="1:13" ht="15">
+      <c r="A74" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C74" s="4" t="s">
@@ -3783,10 +3788,10 @@
       </c>
     </row>
     <row r="75" spans="1:13">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C75" s="3" t="s">
@@ -3824,10 +3829,10 @@
       </c>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C76" s="3" t="s">
@@ -3865,10 +3870,10 @@
       </c>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C77" s="3" t="s">
@@ -3906,10 +3911,10 @@
       </c>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -3947,10 +3952,10 @@
       </c>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C79" s="3" t="s">
@@ -3987,14 +3992,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
-      <c r="A80" s="6" t="s">
+    <row r="80" spans="1:13" ht="15">
+      <c r="A80" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C80" s="9"/>
+      <c r="C80" s="8"/>
       <c r="D80" s="1">
         <v>5131</v>
       </c>
@@ -4026,11 +4031,11 @@
         <v>3125</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
-      <c r="A81" s="6" t="s">
+    <row r="81" spans="1:13" ht="15">
+      <c r="A81" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="9" t="s">
         <v>83</v>
       </c>
       <c r="C81" s="4" t="s">
@@ -4068,10 +4073,10 @@
       </c>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="9" t="s">
         <v>83</v>
       </c>
       <c r="C82" s="3" t="s">
@@ -4109,10 +4114,10 @@
       </c>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="9" t="s">
         <v>83</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -4150,10 +4155,10 @@
       </c>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="9" t="s">
         <v>83</v>
       </c>
       <c r="C84" s="3" t="s">
@@ -4191,10 +4196,10 @@
       </c>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="9" t="s">
         <v>83</v>
       </c>
       <c r="C85" s="3" t="s">
@@ -4232,10 +4237,10 @@
       </c>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="9" t="s">
         <v>83</v>
       </c>
       <c r="C86" s="3" t="s">
@@ -4272,11 +4277,11 @@
         <v>193</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
-      <c r="A87" s="6" t="s">
+    <row r="87" spans="1:13" ht="15">
+      <c r="A87" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C87" s="4" t="s">
@@ -4314,10 +4319,10 @@
       </c>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C88" s="3" t="s">
@@ -4355,10 +4360,10 @@
       </c>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C89" s="3" t="s">
@@ -4396,10 +4401,10 @@
       </c>
     </row>
     <row r="90" spans="1:13">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C90" s="3" t="s">
@@ -4437,10 +4442,10 @@
       </c>
     </row>
     <row r="91" spans="1:13">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -4478,10 +4483,10 @@
       </c>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C92" s="3" t="s">
@@ -4519,10 +4524,10 @@
       </c>
     </row>
     <row r="93" spans="1:13">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C93" s="3" t="s">
@@ -4560,10 +4565,10 @@
       </c>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="6" t="s">
+      <c r="A94" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -4601,10 +4606,10 @@
       </c>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C95" s="3" t="s">
@@ -4641,11 +4646,11 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
-      <c r="A96" s="6" t="s">
+    <row r="96" spans="1:13" ht="15">
+      <c r="A96" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="9" t="s">
         <v>98</v>
       </c>
       <c r="C96" s="4" t="s">
@@ -4683,10 +4688,10 @@
       </c>
     </row>
     <row r="97" spans="1:13">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="9" t="s">
         <v>98</v>
       </c>
       <c r="C97" s="3" t="s">
@@ -4724,10 +4729,10 @@
       </c>
     </row>
     <row r="98" spans="1:13">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="9" t="s">
         <v>98</v>
       </c>
       <c r="C98" s="3" t="s">
@@ -4765,10 +4770,10 @@
       </c>
     </row>
     <row r="99" spans="1:13">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="9" t="s">
         <v>98</v>
       </c>
       <c r="C99" s="3" t="s">
@@ -4805,11 +4810,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
-      <c r="A100" s="6" t="s">
+    <row r="100" spans="1:13" ht="15">
+      <c r="A100" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C100" s="4" t="s">
@@ -4847,10 +4852,10 @@
       </c>
     </row>
     <row r="101" spans="1:13">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C101" s="3" t="s">
@@ -4888,10 +4893,10 @@
       </c>
     </row>
     <row r="102" spans="1:13">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C102" s="3" t="s">
@@ -4902,10 +4907,10 @@
       </c>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C103" s="3" t="s">
@@ -4942,11 +4947,11 @@
         <v>412</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
-      <c r="A104" s="6" t="s">
+    <row r="104" spans="1:13" ht="15">
+      <c r="A104" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="9" t="s">
         <v>106</v>
       </c>
       <c r="C104" s="4" t="s">
@@ -4984,10 +4989,10 @@
       </c>
     </row>
     <row r="105" spans="1:13">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="9" t="s">
         <v>106</v>
       </c>
       <c r="C105" s="3" t="s">
@@ -5025,10 +5030,10 @@
       </c>
     </row>
     <row r="106" spans="1:13">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="9" t="s">
         <v>106</v>
       </c>
       <c r="C106" s="3" t="s">
@@ -5066,10 +5071,10 @@
       </c>
     </row>
     <row r="107" spans="1:13">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="9" t="s">
         <v>106</v>
       </c>
       <c r="C107" s="3" t="s">
@@ -5083,10 +5088,10 @@
       </c>
     </row>
     <row r="108" spans="1:13">
-      <c r="A108" s="6" t="s">
+      <c r="A108" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="9" t="s">
         <v>106</v>
       </c>
       <c r="C108" s="3" t="s">
@@ -5124,10 +5129,10 @@
       </c>
     </row>
     <row r="109" spans="1:13">
-      <c r="A109" s="6" t="s">
+      <c r="A109" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="9" t="s">
         <v>106</v>
       </c>
       <c r="C109" s="3" t="s">
@@ -5164,12 +5169,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
-      <c r="A110" s="8" t="s">
+    <row r="110" spans="1:13" ht="15">
+      <c r="A110" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B110" s="7"/>
-      <c r="C110" s="9"/>
+      <c r="C110" s="8"/>
       <c r="D110" s="1">
         <v>29034</v>
       </c>
@@ -5203,18 +5208,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="B81:B86"/>
-    <mergeCell ref="B87:B95"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="B104:B109"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B74:B79"/>
-    <mergeCell ref="A50:A79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="A80:A109"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:B13"/>
     <mergeCell ref="B47:B49"/>
     <mergeCell ref="A10:A49"/>
     <mergeCell ref="B50:C50"/>
@@ -5225,11 +5223,18 @@
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B38"/>
     <mergeCell ref="B39:B46"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="A50:A79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="A80:A109"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="B87:B95"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="B104:B109"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
